--- a/tests/data/desired/multisummaryreport.xlsx
+++ b/tests/data/desired/multisummaryreport.xlsx
@@ -298,7 +298,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>960.0</v>
+        <v>39.0</v>
       </c>
       <c r="C7" t="n" s="3">
         <v>0.03903903903903904</v>
@@ -307,7 +307,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>960.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n" s="3">
         <v>0.0</v>
@@ -338,7 +338,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C9" t="n" s="3">
         <v>0.9927611168562565</v>
@@ -347,7 +347,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I9" t="n" s="3">
         <v>1.0</v>
@@ -398,7 +398,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C12" t="n" s="3">
         <v>0.967741935483871</v>
@@ -407,7 +407,7 @@
         <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I12" t="n" s="3">
         <v>1.0</v>
@@ -552,7 +552,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>960.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" t="n" s="3">
         <v>0.007238883143743537</v>
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>960.0</v>
+        <v>32.0</v>
       </c>
       <c r="I21" t="n" s="3">
         <v>0.03225806451612903</v>
@@ -595,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C23" t="n" s="3">
         <v>0.9927611168562565</v>
@@ -604,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I23" t="n" s="3">
         <v>1.0</v>
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C26" t="n" s="3">
         <v>1.0</v>
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="I26" t="n" s="3">
         <v>0.967741935483871</v>
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>960.0</v>
+        <v>39.0</v>
       </c>
       <c r="C7" t="n" s="3">
         <v>0.03903903903903904</v>
@@ -836,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>960.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n" s="3">
         <v>0.0</v>
@@ -867,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C9" t="n" s="3">
         <v>0.9927611168562565</v>
@@ -876,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I9" t="n" s="3">
         <v>1.0</v>
@@ -927,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C12" t="n" s="3">
         <v>0.967741935483871</v>
@@ -936,7 +936,7 @@
         <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I12" t="n" s="3">
         <v>1.0</v>
@@ -1076,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>960.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" t="n" s="3">
         <v>0.007238883143743537</v>
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>960.0</v>
+        <v>32.0</v>
       </c>
       <c r="I21" t="n" s="3">
         <v>0.03225806451612903</v>
@@ -1116,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C23" t="n" s="3">
         <v>0.9927611168562565</v>
@@ -1125,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I23" t="n" s="3">
         <v>1.0</v>
@@ -1176,7 +1176,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C26" t="n" s="3">
         <v>1.0</v>
@@ -1185,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="I26" t="n" s="3">
         <v>0.967741935483871</v>

--- a/tests/data/desired/multisummaryreport.xlsx
+++ b/tests/data/desired/multisummaryreport.xlsx
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -93,10 +93,163 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,7 +257,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,17 +268,7 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -133,7 +278,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="22"/>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,11 +299,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -180,513 +355,513 @@
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="H2" t="s" s="1">
+      <c r="H2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="9">
         <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C3" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="s" s="2">
+      <c r="C3" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="11">
         <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>960.0</v>
       </c>
-      <c r="I3" t="n" s="3">
+      <c r="I3" t="n" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" t="s" s="9">
         <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>604.0</v>
       </c>
-      <c r="C4" t="n" s="3">
+      <c r="C4" t="n" s="10">
         <v>0.6046046046046046</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" t="s" s="11">
         <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>604.0</v>
       </c>
-      <c r="I4" t="n" s="3">
+      <c r="I4" t="n" s="12">
         <v>0.6291666666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="9">
         <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>395.0</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="C5" t="n" s="10">
         <v>0.3953953953953954</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" t="n" s="10">
         <v>0.8</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="11">
         <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>356.0</v>
       </c>
-      <c r="I5" t="n" s="3">
+      <c r="I5" t="n" s="12">
         <v>0.37083333333333335</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" t="s" s="9">
         <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
-      <c r="C6" t="n" s="3">
+      <c r="C6" t="n" s="10">
         <v>0.960960960960961</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" t="s" s="11">
         <v>12</v>
       </c>
       <c r="H6" t="n">
         <v>960.0</v>
       </c>
-      <c r="I6" t="n" s="3">
+      <c r="I6" t="n" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" t="s" s="9">
         <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>39.0</v>
       </c>
-      <c r="C7" t="n" s="3">
+      <c r="C7" t="n" s="10">
         <v>0.03903903903903904</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G7" t="s" s="11">
         <v>13</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
-      <c r="I7" t="n" s="3">
+      <c r="I7" t="n" s="12">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" t="s" s="9">
         <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>967.0</v>
       </c>
-      <c r="C8" t="n" s="3">
+      <c r="C8" t="n" s="10">
         <v>0.9679679679679679</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G8" t="s" s="11">
         <v>14</v>
       </c>
       <c r="H8" t="n">
         <v>960.0</v>
       </c>
-      <c r="I8" t="n" s="3">
+      <c r="I8" t="n" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="9">
         <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>960.0</v>
       </c>
-      <c r="C9" t="n" s="3">
+      <c r="C9" t="n" s="10">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="11">
         <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>960.0</v>
       </c>
-      <c r="I9" t="n" s="3">
+      <c r="I9" t="n" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="9">
         <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>7.0</v>
       </c>
-      <c r="C10" t="n" s="3">
+      <c r="C10" t="n" s="10">
         <v>0.007238883143743537</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="11">
         <v>16</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
-      <c r="I10" t="n" s="3">
+      <c r="I10" t="n" s="12">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="9">
         <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>992.0</v>
       </c>
-      <c r="C11" t="n" s="3">
+      <c r="C11" t="n" s="10">
         <v>0.992992992992993</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="11">
         <v>17</v>
       </c>
       <c r="H11" t="n">
         <v>960.0</v>
       </c>
-      <c r="I11" t="n" s="3">
+      <c r="I11" t="n" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="9">
         <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>960.0</v>
       </c>
-      <c r="C12" t="n" s="3">
+      <c r="C12" t="n" s="10">
         <v>0.967741935483871</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="11">
         <v>18</v>
       </c>
       <c r="H12" t="n">
         <v>960.0</v>
       </c>
-      <c r="I12" t="n" s="3">
+      <c r="I12" t="n" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="9">
         <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>32.0</v>
       </c>
-      <c r="C13" t="n" s="3">
+      <c r="C13" t="n" s="10">
         <v>0.03225806451612903</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="11">
         <v>19</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
-      <c r="I13" t="n" s="3">
+      <c r="I13" t="n" s="12">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="1">
+      <c r="A15" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="G15" t="s" s="1">
+      <c r="G15" t="s" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="1">
+      <c r="A16" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="1">
+      <c r="B16" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C16" t="s" s="1">
+      <c r="C16" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="D16" t="s" s="1">
+      <c r="D16" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="E16" t="s" s="1">
+      <c r="E16" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="G16" t="s" s="1">
+      <c r="G16" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="H16" t="s" s="1">
+      <c r="H16" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="I16" t="s" s="1">
+      <c r="I16" t="s" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="13">
         <v>9</v>
       </c>
       <c r="B17" t="n">
         <v>967.0</v>
       </c>
-      <c r="C17" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="s" s="2">
+      <c r="C17" t="n" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="s" s="15">
         <v>9</v>
       </c>
       <c r="H17" t="n">
         <v>992.0</v>
       </c>
-      <c r="I17" t="n" s="3">
+      <c r="I17" t="n" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="13">
         <v>10</v>
       </c>
       <c r="B18" t="n">
         <v>604.0</v>
       </c>
-      <c r="C18" t="n" s="3">
+      <c r="C18" t="n" s="14">
         <v>0.6246122026887281</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="15">
         <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>604.0</v>
       </c>
-      <c r="I18" t="n" s="3">
+      <c r="I18" t="n" s="16">
         <v>0.6088709677419355</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="13">
         <v>11</v>
       </c>
       <c r="B19" t="n">
         <v>363.0</v>
       </c>
-      <c r="C19" t="n" s="3">
+      <c r="C19" t="n" s="14">
         <v>0.375387797311272</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="15">
         <v>11</v>
       </c>
       <c r="H19" t="n">
         <v>388.0</v>
       </c>
-      <c r="I19" t="n" s="3">
+      <c r="I19" t="n" s="16">
         <v>0.3911290322580645</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="13">
         <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>960.0</v>
       </c>
-      <c r="C20" t="n" s="3">
+      <c r="C20" t="n" s="14">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="15">
         <v>12</v>
       </c>
       <c r="H20" t="n">
         <v>960.0</v>
       </c>
-      <c r="I20" t="n" s="3">
+      <c r="I20" t="n" s="16">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="13">
         <v>13</v>
       </c>
       <c r="B21" t="n">
         <v>7.0</v>
       </c>
-      <c r="C21" t="n" s="3">
+      <c r="C21" t="n" s="14">
         <v>0.007238883143743537</v>
       </c>
-      <c r="D21" t="n" s="3">
+      <c r="D21" t="n" s="14">
         <v>0.8</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="15">
         <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>32.0</v>
       </c>
-      <c r="I21" t="n" s="3">
+      <c r="I21" t="n" s="16">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="13">
         <v>14</v>
       </c>
       <c r="B22" t="n">
         <v>967.0</v>
       </c>
-      <c r="C22" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="s" s="2">
+      <c r="C22" t="n" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="s" s="15">
         <v>14</v>
       </c>
       <c r="H22" t="n">
         <v>960.0</v>
       </c>
-      <c r="I22" t="n" s="3">
+      <c r="I22" t="n" s="16">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="13">
         <v>15</v>
       </c>
       <c r="B23" t="n">
         <v>960.0</v>
       </c>
-      <c r="C23" t="n" s="3">
+      <c r="C23" t="n" s="14">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="15">
         <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>960.0</v>
       </c>
-      <c r="I23" t="n" s="3">
+      <c r="I23" t="n" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="13">
         <v>16</v>
       </c>
       <c r="B24" t="n">
         <v>7.0</v>
       </c>
-      <c r="C24" t="n" s="3">
+      <c r="C24" t="n" s="14">
         <v>0.007238883143743537</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="15">
         <v>16</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
-      <c r="I24" t="n" s="3">
+      <c r="I24" t="n" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="13">
         <v>17</v>
       </c>
       <c r="B25" t="n">
         <v>960.0</v>
       </c>
-      <c r="C25" t="n" s="3">
+      <c r="C25" t="n" s="14">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="15">
         <v>17</v>
       </c>
       <c r="H25" t="n">
         <v>992.0</v>
       </c>
-      <c r="I25" t="n" s="3">
+      <c r="I25" t="n" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="13">
         <v>18</v>
       </c>
       <c r="B26" t="n">
         <v>960.0</v>
       </c>
-      <c r="C26" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="s" s="2">
+      <c r="C26" t="n" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G26" t="s" s="15">
         <v>18</v>
       </c>
       <c r="H26" t="n">
         <v>960.0</v>
       </c>
-      <c r="I26" t="n" s="3">
+      <c r="I26" t="n" s="16">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="13">
         <v>19</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G27" t="s" s="2">
+      <c r="C27" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="s" s="15">
         <v>19</v>
       </c>
       <c r="H27" t="n">
         <v>32.0</v>
       </c>
-      <c r="I27" t="n" s="3">
+      <c r="I27" t="n" s="16">
         <v>0.03225806451612903</v>
       </c>
     </row>
@@ -714,500 +889,500 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="20">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="20">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="20">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" t="s" s="20">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="H2" t="s" s="1">
+      <c r="H2" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="27">
         <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C3" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="s" s="2">
+      <c r="C3" t="n" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="25">
         <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>960.0</v>
       </c>
-      <c r="I3" t="n" s="3">
+      <c r="I3" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" t="s" s="27">
         <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>960.0</v>
       </c>
-      <c r="C4" t="n" s="3">
+      <c r="C4" t="n" s="28">
         <v>0.960960960960961</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" t="s" s="25">
         <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>960.0</v>
       </c>
-      <c r="I4" t="n" s="3">
+      <c r="I4" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="27">
         <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>39.0</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="C5" t="n" s="28">
         <v>0.03903903903903904</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" t="n" s="28">
         <v>0.8</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="25">
         <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
-      <c r="I5" t="n" s="3">
+      <c r="I5" t="n" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" t="s" s="27">
         <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
-      <c r="C6" t="n" s="3">
+      <c r="C6" t="n" s="28">
         <v>0.960960960960961</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" t="s" s="25">
         <v>12</v>
       </c>
       <c r="H6" t="n">
         <v>960.0</v>
       </c>
-      <c r="I6" t="n" s="3">
+      <c r="I6" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" t="s" s="27">
         <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>39.0</v>
       </c>
-      <c r="C7" t="n" s="3">
+      <c r="C7" t="n" s="28">
         <v>0.03903903903903904</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G7" t="s" s="25">
         <v>13</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
-      <c r="I7" t="n" s="3">
+      <c r="I7" t="n" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" t="s" s="27">
         <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>967.0</v>
       </c>
-      <c r="C8" t="n" s="3">
+      <c r="C8" t="n" s="28">
         <v>0.9679679679679679</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G8" t="s" s="25">
         <v>14</v>
       </c>
       <c r="H8" t="n">
         <v>960.0</v>
       </c>
-      <c r="I8" t="n" s="3">
+      <c r="I8" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="27">
         <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>960.0</v>
       </c>
-      <c r="C9" t="n" s="3">
+      <c r="C9" t="n" s="28">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="25">
         <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>960.0</v>
       </c>
-      <c r="I9" t="n" s="3">
+      <c r="I9" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="27">
         <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>7.0</v>
       </c>
-      <c r="C10" t="n" s="3">
+      <c r="C10" t="n" s="28">
         <v>0.007238883143743537</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="25">
         <v>16</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
-      <c r="I10" t="n" s="3">
+      <c r="I10" t="n" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="27">
         <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>992.0</v>
       </c>
-      <c r="C11" t="n" s="3">
+      <c r="C11" t="n" s="28">
         <v>0.992992992992993</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="25">
         <v>17</v>
       </c>
       <c r="H11" t="n">
         <v>960.0</v>
       </c>
-      <c r="I11" t="n" s="3">
+      <c r="I11" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="27">
         <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>960.0</v>
       </c>
-      <c r="C12" t="n" s="3">
+      <c r="C12" t="n" s="28">
         <v>0.967741935483871</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="25">
         <v>18</v>
       </c>
       <c r="H12" t="n">
         <v>960.0</v>
       </c>
-      <c r="I12" t="n" s="3">
+      <c r="I12" t="n" s="26">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="27">
         <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>32.0</v>
       </c>
-      <c r="C13" t="n" s="3">
+      <c r="C13" t="n" s="28">
         <v>0.03225806451612903</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="25">
         <v>19</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
-      <c r="I13" t="n" s="3">
+      <c r="I13" t="n" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="1">
+      <c r="A16" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="1">
+      <c r="B16" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="C16" t="s" s="1">
+      <c r="C16" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="D16" t="s" s="1">
+      <c r="D16" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="E16" t="s" s="1">
+      <c r="E16" t="s" s="18">
         <v>8</v>
       </c>
-      <c r="G16" t="s" s="1">
+      <c r="G16" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="H16" t="s" s="1">
+      <c r="H16" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="I16" t="s" s="1">
+      <c r="I16" t="s" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="23">
         <v>9</v>
       </c>
       <c r="B17" t="n">
         <v>967.0</v>
       </c>
-      <c r="C17" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="s" s="2">
+      <c r="C17" t="n" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="s" s="21">
         <v>9</v>
       </c>
       <c r="H17" t="n">
         <v>992.0</v>
       </c>
-      <c r="I17" t="n" s="3">
+      <c r="I17" t="n" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="23">
         <v>10</v>
       </c>
       <c r="B18" t="n">
         <v>960.0</v>
       </c>
-      <c r="C18" t="n" s="3">
+      <c r="C18" t="n" s="24">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="21">
         <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>960.0</v>
       </c>
-      <c r="I18" t="n" s="3">
+      <c r="I18" t="n" s="22">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="23">
         <v>11</v>
       </c>
       <c r="B19" t="n">
         <v>7.0</v>
       </c>
-      <c r="C19" t="n" s="3">
+      <c r="C19" t="n" s="24">
         <v>0.007238883143743537</v>
       </c>
-      <c r="D19" t="n" s="3">
+      <c r="D19" t="n" s="24">
         <v>0.8</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="21">
         <v>11</v>
       </c>
       <c r="H19" t="n">
         <v>32.0</v>
       </c>
-      <c r="I19" t="n" s="3">
+      <c r="I19" t="n" s="22">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="23">
         <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>960.0</v>
       </c>
-      <c r="C20" t="n" s="3">
+      <c r="C20" t="n" s="24">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="21">
         <v>12</v>
       </c>
       <c r="H20" t="n">
         <v>960.0</v>
       </c>
-      <c r="I20" t="n" s="3">
+      <c r="I20" t="n" s="22">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="23">
         <v>13</v>
       </c>
       <c r="B21" t="n">
         <v>7.0</v>
       </c>
-      <c r="C21" t="n" s="3">
+      <c r="C21" t="n" s="24">
         <v>0.007238883143743537</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="21">
         <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>32.0</v>
       </c>
-      <c r="I21" t="n" s="3">
+      <c r="I21" t="n" s="22">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="23">
         <v>14</v>
       </c>
       <c r="B22" t="n">
         <v>967.0</v>
       </c>
-      <c r="C22" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="s" s="2">
+      <c r="C22" t="n" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="s" s="21">
         <v>14</v>
       </c>
       <c r="H22" t="n">
         <v>960.0</v>
       </c>
-      <c r="I22" t="n" s="3">
+      <c r="I22" t="n" s="22">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="23">
         <v>15</v>
       </c>
       <c r="B23" t="n">
         <v>960.0</v>
       </c>
-      <c r="C23" t="n" s="3">
+      <c r="C23" t="n" s="24">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="21">
         <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>960.0</v>
       </c>
-      <c r="I23" t="n" s="3">
+      <c r="I23" t="n" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="23">
         <v>16</v>
       </c>
       <c r="B24" t="n">
         <v>7.0</v>
       </c>
-      <c r="C24" t="n" s="3">
+      <c r="C24" t="n" s="24">
         <v>0.007238883143743537</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="21">
         <v>16</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
-      <c r="I24" t="n" s="3">
+      <c r="I24" t="n" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="23">
         <v>17</v>
       </c>
       <c r="B25" t="n">
         <v>960.0</v>
       </c>
-      <c r="C25" t="n" s="3">
+      <c r="C25" t="n" s="24">
         <v>0.9927611168562565</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="21">
         <v>17</v>
       </c>
       <c r="H25" t="n">
         <v>992.0</v>
       </c>
-      <c r="I25" t="n" s="3">
+      <c r="I25" t="n" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="23">
         <v>18</v>
       </c>
       <c r="B26" t="n">
         <v>960.0</v>
       </c>
-      <c r="C26" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="s" s="2">
+      <c r="C26" t="n" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G26" t="s" s="21">
         <v>18</v>
       </c>
       <c r="H26" t="n">
         <v>960.0</v>
       </c>
-      <c r="I26" t="n" s="3">
+      <c r="I26" t="n" s="22">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="23">
         <v>19</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G27" t="s" s="2">
+      <c r="C27" t="n" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="s" s="21">
         <v>19</v>
       </c>
       <c r="H27" t="n">
         <v>32.0</v>
       </c>
-      <c r="I27" t="n" s="3">
+      <c r="I27" t="n" s="22">
         <v>0.03225806451612903</v>
       </c>
     </row>
